--- a/seguimiento/ProduccionDigital/ListadoVideos.xlsx
+++ b/seguimiento/ProduccionDigital/ListadoVideos.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Matematicas\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="9711"/>
+    <workbookView xWindow="10060" yWindow="5820" windowWidth="21720" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Listado" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -48,6 +46,24 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>CS_06_10_CO</t>
+  </si>
+  <si>
+    <t>Recurso030</t>
+  </si>
+  <si>
+    <t>La formación de los continentes</t>
+  </si>
+  <si>
+    <t>AN010304</t>
+  </si>
+  <si>
+    <t>Media principal</t>
+  </si>
+  <si>
+    <t>Pendiente de doblaje</t>
   </si>
 </sst>
 </file>
@@ -103,16 +119,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -206,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,21 +445,21 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H28"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.53125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" customWidth="1"/>
-    <col min="3" max="3" width="16.46484375" customWidth="1"/>
-    <col min="4" max="4" width="28.53125" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,19 +485,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>42230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -491,7 +521,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -501,7 +531,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -511,7 +541,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -521,7 +551,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -531,7 +561,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -541,7 +571,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -551,7 +581,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -561,7 +591,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -571,7 +601,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -581,7 +611,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -591,7 +621,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -601,7 +631,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -611,7 +641,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -621,7 +651,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -631,7 +661,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -641,7 +671,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -651,7 +681,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -661,7 +691,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -671,7 +701,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -681,7 +711,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -691,7 +721,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -701,7 +731,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -711,7 +741,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -721,7 +751,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -731,7 +761,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -748,6 +778,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>